--- a/biology/Botanique/Balaka_(plante)/Balaka_(plante).xlsx
+++ b/biology/Botanique/Balaka_(plante)/Balaka_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balaka est un genre de plantes à fleurs de la famille des Arecaceae (les palmiers) dont les espèces sont natives des îles Fidji et de Samoa.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Ptychospermatinae [2]
+Sous-tribu des Ptychospermatinae 
 Le genre Balaka partage sa sous-tribu avec treize autres genres : Ptychosperma, Ponapea, Adonidia,  Veitchia, Carpentaria, Wodyetia, Drymophloeus, Normanbya, Brassiophoenix,  Ptychococcus,  Jailoloa, Manjekia et Wallaceodoxa
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 fevrier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 fevrier 2022) :
 Balaka diffusa Hodel
 Balaka insularis 		Zona &amp; W.J.Baker
 Balaka longirostris Becc.
@@ -558,7 +574,7 @@
 Balaka seemannii (H.Wendl.) Becc.
 Balaka streptostachys D.Fuller &amp; Dowe
 Balaka tahitensis (H.Wendl.) Becc.
-Selon BioLib                    (21 avril 2019)[4] et The Plant List            (21 avril 2019)[5] :
+Selon BioLib                    (21 avril 2019) et The Plant List            (21 avril 2019) :
 Balaka diffusa Hodel
 Balaka longirostris Becc.
 Balaka macrocarpa Burret
@@ -568,7 +584,7 @@
 Balaka seemannii (H.Wendl.) Becc.
 Balaka streptostachys D.Fuller &amp; Dowe
 Balaka tahitensis (H.Wendl.) Becc.
-Selon Catalogue of Life                                   (21 avril 2019)[6] et World Checklist of Selected Plant Families (WCSP)  (21 avril 2019)[7] :
+Selon Catalogue of Life                                   (21 avril 2019) et World Checklist of Selected Plant Families (WCSP)  (21 avril 2019) :
 Balaka diffusa Hodel (2010)
 Balaka insularis Zona &amp; W.J.Baker (2014)
 Balaka longirostris Becc. (1914)
@@ -579,7 +595,7 @@
 Balaka seemannii (H.Wendl.) Becc. (1885)
 Balaka streptostachys D.Fuller &amp; Dowe (1999)
 Balaka tahitensis (H.Wendl.) Becc. (1914)
-Selon Tropicos                                           (21 avril 2019)[1] (Attention liste brute contenant surtout des synonymes) :
+Selon Tropicos                                           (21 avril 2019) (Attention liste brute contenant surtout des synonymes) :
 Balaka brachychlamys Burret
 Balaka burretiana Christoph.
 Balaka cuneata Burret
